--- a/ChatBotAutomation/src/test/resources/testDataAndInitialSetup/CBTestData_InitialSetup.xlsx
+++ b/ChatBotAutomation/src/test/resources/testDataAndInitialSetup/CBTestData_InitialSetup.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\ChatBotAutomation\src\test\resources\testDataAndInitialSetup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chatbot\Git\chatbot\ChatBotAutomation\src\test\resources\testDataAndInitialSetup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="InitialNavigation" r:id="rId1" sheetId="4"/>
-    <sheet name="chatbot" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet1" r:id="rId3" sheetId="3"/>
+    <sheet name="InitialNavigation" sheetId="4" r:id="rId1"/>
+    <sheet name="chatbot" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>Answer1</t>
   </si>
@@ -279,33 +279,6 @@
   </si>
   <si>
     <t>chatbot_wait</t>
-  </si>
-  <si>
-    <t>FAILED_20180906_194716</t>
-  </si>
-  <si>
-    <t>FAILED_20180906_194721</t>
-  </si>
-  <si>
-    <t>FAILED_20180906_200605</t>
-  </si>
-  <si>
-    <t>FAILED_20180906_200955</t>
-  </si>
-  <si>
-    <t>FAILED_20180906_200957</t>
-  </si>
-  <si>
-    <t>FAILED_20180906_201003</t>
-  </si>
-  <si>
-    <t>FAILED_20180917_112054</t>
-  </si>
-  <si>
-    <t>FAILED_20180917_112056</t>
-  </si>
-  <si>
-    <t>FAILED_20180917_112100</t>
   </si>
   <si>
     <t>PASSED_20180917_112246</t>
@@ -607,80 +580,80 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="10" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="6" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="7" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="13" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="14" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="3" fillId="4" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="4" fillId="4" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -693,7 +666,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -709,18 +682,18 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" baseline="0" i="0" kern="1200" spc="100" strike="noStrike" sz="1600" u="none">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:effectLst>
-                  <a:outerShdw algn="t" blurRad="50800" dir="5400000" dist="38100" rotWithShape="0">
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
                     <a:prstClr val="black">
                       <a:alpha val="40000"/>
                     </a:prstClr>
@@ -761,18 +734,18 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="1" baseline="0" i="0" kern="1200" spc="100" strike="noStrike" sz="1600" u="none">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:effectLst>
-                <a:outerShdw algn="t" blurRad="50800" dir="5400000" dist="38100" rotWithShape="0">
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
                   <a:prstClr val="black">
                     <a:alpha val="40000"/>
                   </a:prstClr>
@@ -869,7 +842,7 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
                     <a:alpha val="63000"/>
                   </a:srgbClr>
@@ -917,7 +890,7 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
                     <a:alpha val="63000"/>
                   </a:srgbClr>
@@ -965,7 +938,7 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
                     <a:alpha val="63000"/>
                   </a:srgbClr>
@@ -1051,13 +1024,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr anchor="ctr" anchorCtr="1" bIns="19050" lIns="38100" rIns="38100" rot="0" spcFirstLastPara="1" tIns="19050" vert="horz" vertOverflow="ellipsis" wrap="square">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" baseline="0" i="0" kern="1200" strike="noStrike" sz="1600" u="none">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
                         <a:lumMod val="85000"/>
@@ -1166,11 +1139,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -1206,7 +1179,7 @@
         </a:gs>
       </a:gsLst>
       <a:path path="circle">
-        <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
       </a:path>
       <a:tileRect/>
     </a:gradFill>
@@ -1216,7 +1189,7 @@
     <a:effectLst/>
     <a:scene3d>
       <a:camera prst="orthographicFront"/>
-      <a:lightRig dir="t" rig="threePt"/>
+      <a:lightRig rig="threePt" dir="t"/>
     </a:scene3d>
     <a:sp3d>
       <a:bevelB/>
@@ -1234,14 +1207,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1257,11 +1230,11 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400" u="none">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1295,11 +1268,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400" u="none">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1426,13 +1399,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr anchor="ctr" anchorCtr="1" bIns="19050" lIns="38100" rIns="38100" rot="0" spcFirstLastPara="1" tIns="19050" vert="horz" vertOverflow="ellipsis" wrap="square">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="1050" u="none">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -1456,7 +1429,7 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
@@ -1533,11 +1506,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1568,7 +1541,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -1592,11 +1565,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1631,7 +1604,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -1654,7 +1627,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2731,7 +2704,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -2800,10 +2773,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2838,7 +2811,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2873,7 +2846,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2967,21 +2940,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2998,7 +2971,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3050,15 +3023,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -3066,10 +3039,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="37.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3156,15 +3129,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B1"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -3172,13 +3145,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="10" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="10" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="10" width="29.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="10" width="63.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="10" width="30.42578125" collapsed="true"/>
-    <col min="7" max="16384" style="10" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="10" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" style="10" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.5703125" style="10" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="63.28515625" style="10" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.42578125" style="10" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="10" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3204,12 +3177,12 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="90" r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -3223,12 +3196,12 @@
       <c r="F2" s="18"/>
       <c r="G2" s="12"/>
     </row>
-    <row ht="30" r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -3242,12 +3215,12 @@
       <c r="F3" s="18"/>
       <c r="G3" s="12"/>
     </row>
-    <row ht="45" r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -3263,7 +3236,7 @@
       </c>
       <c r="G4" s="12"/>
     </row>
-    <row ht="45" r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>26</v>
       </c>
@@ -3284,7 +3257,7 @@
       </c>
       <c r="G5" s="12"/>
     </row>
-    <row customHeight="1" ht="81" r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>26</v>
       </c>
@@ -3305,7 +3278,7 @@
       </c>
       <c r="G6" s="12"/>
     </row>
-    <row customHeight="1" ht="61.5" r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>26</v>
       </c>
@@ -3323,7 +3296,7 @@
       </c>
       <c r="F7" s="18"/>
     </row>
-    <row customHeight="1" ht="122.25" r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>26</v>
       </c>
@@ -3341,7 +3314,7 @@
       </c>
       <c r="F8" s="18"/>
     </row>
-    <row customHeight="1" ht="101.25" r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>26</v>
       </c>
@@ -3359,7 +3332,7 @@
       </c>
       <c r="F9" s="18"/>
     </row>
-    <row ht="75" r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>26</v>
       </c>
@@ -3377,7 +3350,7 @@
       </c>
       <c r="F10" s="18"/>
     </row>
-    <row customHeight="1" ht="129.75" r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>26</v>
       </c>
@@ -3395,7 +3368,7 @@
       </c>
       <c r="F11" s="18"/>
     </row>
-    <row ht="30.75" r="12" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>26</v>
       </c>
@@ -3414,14 +3387,14 @@
       <c r="F12" s="20"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" horizontalDpi="0" orientation="portrait" paperSize="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
@@ -3429,17 +3402,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15.75" r="1" spans="3:8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row ht="15.75" r="2" spans="3:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="26" t="s">
         <v>22</v>
       </c>
@@ -3448,7 +3421,7 @@
       <c r="G2" s="27"/>
       <c r="H2" s="28"/>
     </row>
-    <row ht="15.75" r="3" spans="3:8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
       <c r="D4" s="3" t="s">
@@ -3467,7 +3440,7 @@
         <v>21</v>
       </c>
     </row>
-    <row ht="15.75" r="5" spans="3:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -3478,7 +3451,7 @@
   <mergeCells count="1">
     <mergeCell ref="D2:H2"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ChatBotAutomation/src/test/resources/testDataAndInitialSetup/CBTestData_InitialSetup.xlsx
+++ b/ChatBotAutomation/src/test/resources/testDataAndInitialSetup/CBTestData_InitialSetup.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chatbot\Git\chatbot\ChatBotAutomation\src\test\resources\testDataAndInitialSetup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\ChatBotAutomation\src\test\resources\testDataAndInitialSetup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="InitialNavigation" sheetId="4" r:id="rId1"/>
-    <sheet name="chatbot" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="InitialNavigation" r:id="rId1" sheetId="4"/>
+    <sheet name="chatbot" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
   <si>
     <t>Answer1</t>
   </si>
@@ -281,13 +281,43 @@
     <t>chatbot_wait</t>
   </si>
   <si>
-    <t>PASSED_20180917_112246</t>
-  </si>
-  <si>
-    <t>PASSED_20180917_112248</t>
-  </si>
-  <si>
-    <t>PASSED_20180917_112255</t>
+    <t>FAILED_20180906_200955</t>
+  </si>
+  <si>
+    <t>FAILED_20180906_200957</t>
+  </si>
+  <si>
+    <t>FAILED_20180906_201003</t>
+  </si>
+  <si>
+    <t>FAILED_20180918_212015</t>
+  </si>
+  <si>
+    <t>FAILED_20180918_212215</t>
+  </si>
+  <si>
+    <t>FAILED_20180918_212509</t>
+  </si>
+  <si>
+    <t>FAILED_20180918_212942</t>
+  </si>
+  <si>
+    <t>FAILED_20180918_213109</t>
+  </si>
+  <si>
+    <t>FAILED_20180918_213947</t>
+  </si>
+  <si>
+    <t>PASSED_20180918_214304</t>
+  </si>
+  <si>
+    <t>FAILED_20180918_214607</t>
+  </si>
+  <si>
+    <t>PASSED_20180918_214830</t>
+  </si>
+  <si>
+    <t>FAILED_20180918_215000</t>
   </si>
 </sst>
 </file>
@@ -580,80 +610,80 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="10" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="6" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="7" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="13" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="14" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="3" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="4" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -666,7 +696,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -682,18 +712,18 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr b="1" baseline="0" i="0" kern="1200" spc="100" strike="noStrike" sz="1600" u="none">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:outerShdw algn="t" blurRad="50800" dir="5400000" dist="38100" rotWithShape="0">
                     <a:prstClr val="black">
                       <a:alpha val="40000"/>
                     </a:prstClr>
@@ -734,18 +764,18 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr b="1" baseline="0" i="0" kern="1200" spc="100" strike="noStrike" sz="1600" u="none">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                <a:outerShdw algn="t" blurRad="50800" dir="5400000" dist="38100" rotWithShape="0">
                   <a:prstClr val="black">
                     <a:alpha val="40000"/>
                   </a:prstClr>
@@ -842,7 +872,7 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
                   <a:srgbClr val="000000">
                     <a:alpha val="63000"/>
                   </a:srgbClr>
@@ -890,7 +920,7 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
                   <a:srgbClr val="000000">
                     <a:alpha val="63000"/>
                   </a:srgbClr>
@@ -938,7 +968,7 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
                   <a:srgbClr val="000000">
                     <a:alpha val="63000"/>
                   </a:srgbClr>
@@ -1024,13 +1054,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr anchor="ctr" anchorCtr="1" bIns="19050" lIns="38100" rIns="38100" rot="0" spcFirstLastPara="1" tIns="19050" vert="horz" vertOverflow="ellipsis" wrap="square">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr b="1" baseline="0" i="0" kern="1200" strike="noStrike" sz="1600" u="none">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
                         <a:lumMod val="85000"/>
@@ -1139,11 +1169,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -1179,7 +1209,7 @@
         </a:gs>
       </a:gsLst>
       <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
       </a:path>
       <a:tileRect/>
     </a:gradFill>
@@ -1189,7 +1219,7 @@
     <a:effectLst/>
     <a:scene3d>
       <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
+      <a:lightRig dir="t" rig="threePt"/>
     </a:scene3d>
     <a:sp3d>
       <a:bevelB/>
@@ -1207,14 +1237,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1230,11 +1260,11 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400" u="none">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1268,11 +1298,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1399,13 +1429,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr anchor="ctr" anchorCtr="1" bIns="19050" lIns="38100" rIns="38100" rot="0" spcFirstLastPara="1" tIns="19050" vert="horz" vertOverflow="ellipsis" wrap="square">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="1050" u="none">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -1429,7 +1459,7 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
@@ -1506,11 +1536,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1541,7 +1571,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -1565,11 +1595,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1604,7 +1634,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -1627,7 +1657,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2704,7 +2734,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -2773,10 +2803,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2811,7 +2841,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2846,7 +2876,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2940,21 +2970,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2971,7 +3001,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3023,15 +3053,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -3039,10 +3069,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="37.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3129,29 +3159,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B1"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" style="10" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.5703125" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="63.28515625" style="10" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.42578125" style="10" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="10" collapsed="1"/>
+    <col min="1" max="1" style="10" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="10" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="10" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="10" width="29.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="10" width="63.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="10" width="30.42578125" collapsed="true"/>
+    <col min="7" max="16384" style="10" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3177,12 +3207,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row ht="90" r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -3196,7 +3226,7 @@
       <c r="F2" s="18"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>26</v>
       </c>
@@ -3215,7 +3245,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>26</v>
       </c>
@@ -3236,7 +3266,7 @@
       </c>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>26</v>
       </c>
@@ -3257,7 +3287,7 @@
       </c>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="81" r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>26</v>
       </c>
@@ -3278,7 +3308,7 @@
       </c>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="61.5" r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>26</v>
       </c>
@@ -3296,7 +3326,7 @@
       </c>
       <c r="F7" s="18"/>
     </row>
-    <row r="8" spans="1:7" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="122.25" r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>26</v>
       </c>
@@ -3314,7 +3344,7 @@
       </c>
       <c r="F8" s="18"/>
     </row>
-    <row r="9" spans="1:7" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="101.25" r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>26</v>
       </c>
@@ -3332,7 +3362,7 @@
       </c>
       <c r="F9" s="18"/>
     </row>
-    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>26</v>
       </c>
@@ -3350,7 +3380,7 @@
       </c>
       <c r="F10" s="18"/>
     </row>
-    <row r="11" spans="1:7" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="129.75" r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>26</v>
       </c>
@@ -3368,7 +3398,7 @@
       </c>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30.75" r="12" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>26</v>
       </c>
@@ -3387,14 +3417,14 @@
       <c r="F12" s="20"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="0" horizontalDpi="0" orientation="portrait" paperSize="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:I5"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
@@ -3402,17 +3432,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="1" spans="3:8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row ht="15.75" r="2" spans="3:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="26" t="s">
         <v>22</v>
       </c>
@@ -3421,7 +3451,7 @@
       <c r="G2" s="27"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="3" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row ht="15.75" r="3" spans="3:8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
       <c r="D4" s="3" t="s">
@@ -3440,7 +3470,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="5" spans="3:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -3451,7 +3481,7 @@
   <mergeCells count="1">
     <mergeCell ref="D2:H2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>